--- a/Code/Results/Cases/Case_4_172/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_172/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.470565501708279</v>
+        <v>1.453128307348038</v>
       </c>
       <c r="C2">
-        <v>0.5918257839234684</v>
+        <v>0.2177079558587423</v>
       </c>
       <c r="D2">
-        <v>0.2010277430398446</v>
+        <v>0.07853266255776248</v>
       </c>
       <c r="E2">
-        <v>0.02775799341090579</v>
+        <v>0.07362965815261457</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007910061463509124</v>
+        <v>0.002443012876531004</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3054549877954074</v>
+        <v>0.7265579159599689</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3437075526936724</v>
+        <v>0.239353609840947</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.955422441727222</v>
+        <v>3.137488586664006</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.014504663359901</v>
+        <v>1.315944127916111</v>
       </c>
       <c r="C3">
-        <v>0.5241561502470233</v>
+        <v>0.1956394623377378</v>
       </c>
       <c r="D3">
-        <v>0.1740318818805235</v>
+        <v>0.07122916630872567</v>
       </c>
       <c r="E3">
-        <v>0.02836068254087554</v>
+        <v>0.07445279248153458</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007963621265906307</v>
+        <v>0.002446499766841315</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3098316910095633</v>
+        <v>0.7369479374649686</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3015162633671054</v>
+        <v>0.2289100987905641</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.84706671350645</v>
+        <v>3.148599959743251</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.735425351811728</v>
+        <v>1.231782731556905</v>
       </c>
       <c r="C4">
-        <v>0.4826472218479978</v>
+        <v>0.1820111082670621</v>
       </c>
       <c r="D4">
-        <v>0.1576560377087901</v>
+        <v>0.06678146861654</v>
       </c>
       <c r="E4">
-        <v>0.02880024162060124</v>
+        <v>0.0749989152959829</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007997518279395763</v>
+        <v>0.002448754546480851</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3138387191881833</v>
+        <v>0.7439147698247019</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2759438309635556</v>
+        <v>0.2226165946511713</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.786946885879388</v>
+        <v>3.158050625925654</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.621878918038362</v>
+        <v>1.197505641599946</v>
       </c>
       <c r="C5">
-        <v>0.4657344906896697</v>
+        <v>0.176438015581823</v>
       </c>
       <c r="D5">
-        <v>0.1510266151160238</v>
+        <v>0.06497816579594939</v>
       </c>
       <c r="E5">
-        <v>0.02899623165954424</v>
+        <v>0.07523170223462916</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008011592440510529</v>
+        <v>0.002449702096205337</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3157853226333671</v>
+        <v>0.7469011493055078</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2655975983848151</v>
+        <v>0.2200818585099995</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.763952057751567</v>
+        <v>3.162560942223905</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.603033949085955</v>
+        <v>1.191815176923058</v>
       </c>
       <c r="C6">
-        <v>0.4629260813781571</v>
+        <v>0.1755114415109915</v>
       </c>
       <c r="D6">
-        <v>0.1499282755044078</v>
+        <v>0.06467928104999032</v>
       </c>
       <c r="E6">
-        <v>0.02902977704219278</v>
+        <v>0.07527097462637933</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008013945384863399</v>
+        <v>0.002449861172571248</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3161269913336611</v>
+        <v>0.7474059240716571</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2638838749896166</v>
+        <v>0.2196627754319849</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.760221627472191</v>
+        <v>3.163349631739834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.733893365478991</v>
+        <v>1.23132037806721</v>
       </c>
       <c r="C7">
-        <v>0.4824191304898306</v>
+        <v>0.1819360259318046</v>
       </c>
       <c r="D7">
-        <v>0.1575664615022987</v>
+        <v>0.06675711158368358</v>
       </c>
       <c r="E7">
-        <v>0.02880281730549594</v>
+        <v>0.07500201329179834</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007997707023841589</v>
+        <v>0.002448767209185965</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3138637247799885</v>
+        <v>0.7439544490778758</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2758040069659415</v>
+        <v>0.2225822891333848</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.786630815477764</v>
+        <v>3.158108787385942</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.313084301455206</v>
+        <v>1.405813591892638</v>
       </c>
       <c r="C8">
-        <v>0.5684800590321117</v>
+        <v>0.2101151074019469</v>
       </c>
       <c r="D8">
-        <v>0.191674162985322</v>
+        <v>0.07600677017677526</v>
       </c>
       <c r="E8">
-        <v>0.02795099674435431</v>
+        <v>0.07390502410888633</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007928323133945961</v>
+        <v>0.002444191587680565</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3066789085789594</v>
+        <v>0.730018289640828</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3290852083715663</v>
+        <v>0.2357280336068897</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.91666391852462</v>
+        <v>3.140773208012291</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.459188992498582</v>
+        <v>1.748495180032705</v>
       </c>
       <c r="C9">
-        <v>0.7379521075150421</v>
+        <v>0.2647458603627229</v>
       </c>
       <c r="D9">
-        <v>0.2604541483856906</v>
+        <v>0.09443971119392813</v>
       </c>
       <c r="E9">
-        <v>0.02686130673103015</v>
+        <v>0.07207691404458849</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007799963774188156</v>
+        <v>0.002436117800078407</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3039364775304634</v>
+        <v>0.707365144698457</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4366562574053603</v>
+        <v>0.2624501433320319</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.227742664763724</v>
+        <v>3.127716848803999</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.311868898533589</v>
+        <v>2.000519730894609</v>
       </c>
       <c r="C10">
-        <v>0.8634917598845107</v>
+        <v>0.3044935600018448</v>
       </c>
       <c r="D10">
-        <v>0.3126114668801421</v>
+        <v>0.108167909434755</v>
       </c>
       <c r="E10">
-        <v>0.02645809777096808</v>
+        <v>0.0709307954081897</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000770987249390398</v>
+        <v>0.002430728320634054</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3101522303478461</v>
+        <v>0.6935935733306806</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5182435674969099</v>
+        <v>0.2826608180978383</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.498337011230149</v>
+        <v>3.131011702278755</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.703159450789087</v>
+        <v>2.11521956584329</v>
       </c>
       <c r="C11">
-        <v>0.9209750085994699</v>
+        <v>0.3224901738779238</v>
       </c>
       <c r="D11">
-        <v>0.3368067552814153</v>
+        <v>0.114454889988707</v>
       </c>
       <c r="E11">
-        <v>0.02637139903870356</v>
+        <v>0.07045218045284507</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000766968623074971</v>
+        <v>0.002428393051171263</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3150882317389758</v>
+        <v>0.6879566789518279</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5560795354158046</v>
+        <v>0.2919814551242865</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.632491924946237</v>
+        <v>3.13533571217323</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.851917792528639</v>
+        <v>2.158659730488637</v>
       </c>
       <c r="C12">
-        <v>0.9428098461418983</v>
+        <v>0.329292655710276</v>
       </c>
       <c r="D12">
-        <v>0.3460467330109083</v>
+        <v>0.1168417194310791</v>
       </c>
       <c r="E12">
-        <v>0.02635342870470936</v>
+        <v>0.0702770918107003</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.000765457279184124</v>
+        <v>0.002427525395702355</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3172901885183492</v>
+        <v>0.6859128033550732</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5705258216166129</v>
+        <v>0.2955291707050947</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.685060729877733</v>
+        <v>3.137381432702</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.819852374100037</v>
+        <v>2.149303882038964</v>
       </c>
       <c r="C13">
-        <v>0.9381041091422446</v>
+        <v>0.327828176965653</v>
       </c>
       <c r="D13">
-        <v>0.3440531055830292</v>
+        <v>0.1163274014623283</v>
       </c>
       <c r="E13">
-        <v>0.02635662201147504</v>
+        <v>0.07031452659319015</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007657823279663466</v>
+        <v>0.002427711521319185</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3168006553009874</v>
+        <v>0.6863489483939986</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5674090277325945</v>
+        <v>0.2947642979671912</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.673657503669517</v>
+        <v>3.136922657648086</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.715385580843929</v>
+        <v>2.118793307420901</v>
       </c>
       <c r="C14">
-        <v>0.9227699464690318</v>
+        <v>0.323050068986305</v>
       </c>
       <c r="D14">
-        <v>0.3375653129473193</v>
+        <v>0.1146511335976612</v>
       </c>
       <c r="E14">
-        <v>0.02636961704864227</v>
+        <v>0.07043765247993683</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007668440812907525</v>
+        <v>0.002428321335177277</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3152625388190486</v>
+        <v>0.6877867080960272</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5572655724850222</v>
+        <v>0.2922729633609435</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.636780301609178</v>
+        <v>3.135495819874194</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.651475852834096</v>
+        <v>2.100105407151318</v>
       </c>
       <c r="C15">
-        <v>0.9133864954133628</v>
+        <v>0.3201217118200077</v>
       </c>
       <c r="D15">
-        <v>0.3336018010421924</v>
+        <v>0.1136251653389024</v>
       </c>
       <c r="E15">
-        <v>0.02637954175453494</v>
+        <v>0.07051387197861203</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007674957609341559</v>
+        <v>0.002428697031099814</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3143646640750504</v>
+        <v>0.6886792005750451</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5510683269355923</v>
+        <v>0.2907493174266307</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.614427629851889</v>
+        <v>3.134675075834082</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.286373591205859</v>
+        <v>1.993024736274378</v>
       </c>
       <c r="C16">
-        <v>0.8597437405939559</v>
+        <v>0.3033157108954754</v>
       </c>
       <c r="D16">
-        <v>0.3110405424563965</v>
+        <v>0.1077578892582096</v>
       </c>
       <c r="E16">
-        <v>0.02646578968082203</v>
+        <v>0.07096293477216875</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007712513929480969</v>
+        <v>0.002430883271869339</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3098745478913898</v>
+        <v>0.693974626714585</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5157866570993548</v>
+        <v>0.2820542397638093</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.489806973744351</v>
+        <v>3.130786143391504</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.063331961319648</v>
+        <v>1.927346440925646</v>
       </c>
       <c r="C17">
-        <v>0.8269406595277644</v>
+        <v>0.2929838722059799</v>
       </c>
       <c r="D17">
-        <v>0.2973270538817587</v>
+        <v>0.104169288873976</v>
       </c>
       <c r="E17">
-        <v>0.02654412652226412</v>
+        <v>0.0712493747101135</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007735750491703735</v>
+        <v>0.002432254221938675</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3076802562749776</v>
+        <v>0.6973843000974114</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4943374495089472</v>
+        <v>0.2767525227270653</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.416309739456267</v>
+        <v>3.129125464956246</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.935358287998781</v>
+        <v>1.889575075960806</v>
       </c>
       <c r="C18">
-        <v>0.8081075852000197</v>
+        <v>0.2870333033928887</v>
       </c>
       <c r="D18">
-        <v>0.2894828578090625</v>
+        <v>0.1021091665947296</v>
       </c>
       <c r="E18">
-        <v>0.02659822647848387</v>
+        <v>0.07141815196007961</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007749191207879101</v>
+        <v>0.00243305372012252</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3066146872075066</v>
+        <v>0.6994045270144511</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4820673748688336</v>
+        <v>0.2737150424064083</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.375065600334011</v>
+        <v>3.128436081497256</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.892079751028291</v>
+        <v>1.876787262097707</v>
       </c>
       <c r="C19">
-        <v>0.8017365521346846</v>
+        <v>0.2850171821035303</v>
       </c>
       <c r="D19">
-        <v>0.2868341081969135</v>
+        <v>0.1014123206492741</v>
       </c>
       <c r="E19">
-        <v>0.02661806911587306</v>
+        <v>0.07147598815192246</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007753755299280977</v>
+        <v>0.002433326302206502</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3062867991784515</v>
+        <v>0.700098674549622</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4779240044344704</v>
+        <v>0.2726886530817012</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.36127274193845</v>
+        <v>3.128248255986733</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.0870419628435</v>
+        <v>1.934337497254091</v>
       </c>
       <c r="C20">
-        <v>0.8304289520248176</v>
+        <v>0.2940845405981065</v>
       </c>
       <c r="D20">
-        <v>0.2987823102562714</v>
+        <v>0.1045508927562793</v>
       </c>
       <c r="E20">
-        <v>0.02653484489775515</v>
+        <v>0.07121846613547866</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007733269161644719</v>
+        <v>0.002432107147963952</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3078932963955623</v>
+        <v>0.6970152177548243</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4966137225584362</v>
+        <v>0.2773156653452418</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.424025864734034</v>
+        <v>3.129274723329218</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.746053321053694</v>
+        <v>2.127754858361641</v>
       </c>
       <c r="C21">
-        <v>0.9272720258324512</v>
+        <v>0.324453854848656</v>
       </c>
       <c r="D21">
-        <v>0.3394687376347036</v>
+        <v>0.1151433284951224</v>
       </c>
       <c r="E21">
-        <v>0.02636538880370942</v>
+        <v>0.07040132041781</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007665319443808557</v>
+        <v>0.002428141766594605</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3157050391488454</v>
+        <v>0.6873619385576433</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5602416062519211</v>
+        <v>0.2930042351892297</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.647562575071731</v>
+        <v>3.135903818856576</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.180217046280063</v>
+        <v>2.254197458440842</v>
       </c>
       <c r="C22">
-        <v>0.9909633073289683</v>
+        <v>0.3442293040837114</v>
       </c>
       <c r="D22">
-        <v>0.3665183483001471</v>
+        <v>0.1221015983409899</v>
       </c>
       <c r="E22">
-        <v>0.02634175795997962</v>
+        <v>0.06990313133930925</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007621512416483821</v>
+        <v>0.002425647233004416</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3227660610628575</v>
+        <v>0.6815817859932451</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6025254786711685</v>
+        <v>0.3033636515813072</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.804052055291237</v>
+        <v>3.142617224649229</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.948144824317296</v>
+        <v>2.186710195008175</v>
       </c>
       <c r="C23">
-        <v>0.9569288343590756</v>
+        <v>0.3336815036662415</v>
       </c>
       <c r="D23">
-        <v>0.35203581860209</v>
+        <v>0.1183845727823609</v>
       </c>
       <c r="E23">
-        <v>0.02634606348666857</v>
+        <v>0.07016574158022593</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000764484162334354</v>
+        <v>0.002426969757364591</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.31880800581974</v>
+        <v>0.6846182399195442</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5798885037348498</v>
+        <v>0.2978249428900739</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.71951663183836</v>
+        <v>3.138815620682806</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.07632188112126</v>
+        <v>1.931176878058523</v>
       </c>
       <c r="C24">
-        <v>0.8288518154467681</v>
+        <v>0.293586961599317</v>
       </c>
       <c r="D24">
-        <v>0.2981242654305305</v>
+        <v>0.1043783602660682</v>
       </c>
       <c r="E24">
-        <v>0.02653901296182859</v>
+        <v>0.0712324271339515</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007734390716182721</v>
+        <v>0.002432173604763462</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3077963727955719</v>
+        <v>0.6971818931338305</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4955844294960343</v>
+        <v>0.2770610357145671</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.420534270488872</v>
+        <v>3.129206417163914</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.147606900332221</v>
+        <v>1.655742271273084</v>
       </c>
       <c r="C25">
-        <v>0.691971336073351</v>
+        <v>0.2500347462477066</v>
       </c>
       <c r="D25">
-        <v>0.2415982834619541</v>
+        <v>0.08942097105517632</v>
       </c>
       <c r="E25">
-        <v>0.02708963707148548</v>
+        <v>0.07253687455404556</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007833911335275334</v>
+        <v>0.002438206323473971</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3033344737051635</v>
+        <v>0.712990661169794</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4071588202650247</v>
+        <v>0.2551198231366811</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.136811606102242</v>
+        <v>3.128994640924361</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_172/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_172/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.453128307348038</v>
+        <v>3.470565501708393</v>
       </c>
       <c r="C2">
-        <v>0.2177079558587423</v>
+        <v>0.5918257839236105</v>
       </c>
       <c r="D2">
-        <v>0.07853266255776248</v>
+        <v>0.2010277430399015</v>
       </c>
       <c r="E2">
-        <v>0.07362965815261457</v>
+        <v>0.02775799341090757</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002443012876531004</v>
+        <v>0.0007910061462954755</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7265579159599689</v>
+        <v>0.3054549877953896</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.239353609840947</v>
+        <v>0.343707552693715</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.137488586664006</v>
+        <v>1.955422441727222</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.315944127916111</v>
+        <v>3.014504663359673</v>
       </c>
       <c r="C3">
-        <v>0.1956394623377378</v>
+        <v>0.5241561502470802</v>
       </c>
       <c r="D3">
-        <v>0.07122916630872567</v>
+        <v>0.1740318818805662</v>
       </c>
       <c r="E3">
-        <v>0.07445279248153458</v>
+        <v>0.02836068254088442</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002446499766841315</v>
+        <v>0.00079636212667153</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7369479374649686</v>
+        <v>0.3098316910095775</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2289100987905641</v>
+        <v>0.3015162633671338</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.148599959743251</v>
+        <v>1.847066713506479</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.231782731556905</v>
+        <v>2.735425351811671</v>
       </c>
       <c r="C4">
-        <v>0.1820111082670621</v>
+        <v>0.4826472218477704</v>
       </c>
       <c r="D4">
-        <v>0.06678146861654</v>
+        <v>0.1576560377089038</v>
       </c>
       <c r="E4">
-        <v>0.0749989152959829</v>
+        <v>0.02880024162059769</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002448754546480851</v>
+        <v>0.0007997518279381898</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7439147698247019</v>
+        <v>0.3138387191881833</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2226165946511713</v>
+        <v>0.275943830963655</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.158050625925654</v>
+        <v>1.786946885879416</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.197505641599946</v>
+        <v>2.621878918038362</v>
       </c>
       <c r="C5">
-        <v>0.176438015581823</v>
+        <v>0.4657344906895275</v>
       </c>
       <c r="D5">
-        <v>0.06497816579594939</v>
+        <v>0.1510266151161943</v>
       </c>
       <c r="E5">
-        <v>0.07523170223462916</v>
+        <v>0.0289962316595469</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002449702096205337</v>
+        <v>0.0008011592440214507</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7469011493055078</v>
+        <v>0.3157853226333636</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2200818585099995</v>
+        <v>0.2655975983848293</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.162560942223905</v>
+        <v>1.76395205775151</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.191815176923058</v>
+        <v>2.603033949085898</v>
       </c>
       <c r="C6">
-        <v>0.1755114415109915</v>
+        <v>0.4629260813780718</v>
       </c>
       <c r="D6">
-        <v>0.06467928104999032</v>
+        <v>0.1499282755045925</v>
       </c>
       <c r="E6">
-        <v>0.07527097462637933</v>
+        <v>0.02902977704215992</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002449861172571248</v>
+        <v>0.0008013945384846245</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7474059240716571</v>
+        <v>0.3161269913336753</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2196627754319849</v>
+        <v>0.2638838749896166</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.163349631739834</v>
+        <v>1.76022162747222</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.23132037806721</v>
+        <v>2.733893365478934</v>
       </c>
       <c r="C7">
-        <v>0.1819360259318046</v>
+        <v>0.4824191304897454</v>
       </c>
       <c r="D7">
-        <v>0.06675711158368358</v>
+        <v>0.1575664615023697</v>
       </c>
       <c r="E7">
-        <v>0.07500201329179834</v>
+        <v>0.02880281730548262</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002448767209185965</v>
+        <v>0.0007997707023950563</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7439544490778758</v>
+        <v>0.3138637247799956</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2225822891333848</v>
+        <v>0.2758040069659273</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.158108787385942</v>
+        <v>1.786630815477736</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.405813591892638</v>
+        <v>3.313084301455149</v>
       </c>
       <c r="C8">
-        <v>0.2101151074019469</v>
+        <v>0.5684800590321402</v>
       </c>
       <c r="D8">
-        <v>0.07600677017677526</v>
+        <v>0.1916741629854357</v>
       </c>
       <c r="E8">
-        <v>0.07390502410888633</v>
+        <v>0.02795099674433654</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002444191587680565</v>
+        <v>0.0007928323134232611</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.730018289640828</v>
+        <v>0.3066789085789523</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2357280336068897</v>
+        <v>0.3290852083714242</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.140773208012291</v>
+        <v>1.916663918524591</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.748495180032705</v>
+        <v>4.459188992498639</v>
       </c>
       <c r="C9">
-        <v>0.2647458603627229</v>
+        <v>0.7379521075148432</v>
       </c>
       <c r="D9">
-        <v>0.09443971119392813</v>
+        <v>0.2604541483857616</v>
       </c>
       <c r="E9">
-        <v>0.07207691404458849</v>
+        <v>0.02686130673104259</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002436117800078407</v>
+        <v>0.0007799963774764655</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.707365144698457</v>
+        <v>0.303936477530474</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2624501433320319</v>
+        <v>0.4366562574052608</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.127716848803999</v>
+        <v>2.227742664763667</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.000519730894609</v>
+        <v>5.311868898533533</v>
       </c>
       <c r="C10">
-        <v>0.3044935600018448</v>
+        <v>0.8634917598845959</v>
       </c>
       <c r="D10">
-        <v>0.108167909434755</v>
+        <v>0.3126114668799573</v>
       </c>
       <c r="E10">
-        <v>0.0709307954081897</v>
+        <v>0.02645809777097874</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002430728320634054</v>
+        <v>0.0007709872494175473</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6935935733306806</v>
+        <v>0.3101522303478248</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2826608180978383</v>
+        <v>0.518243567497052</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.131011702278755</v>
+        <v>2.49833701123012</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.11521956584329</v>
+        <v>5.703159450788974</v>
       </c>
       <c r="C11">
-        <v>0.3224901738779238</v>
+        <v>0.9209750085998678</v>
       </c>
       <c r="D11">
-        <v>0.114454889988707</v>
+        <v>0.3368067552814296</v>
       </c>
       <c r="E11">
-        <v>0.07045218045284507</v>
+        <v>0.02637139903871955</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002428393051171263</v>
+        <v>0.0007669686231053356</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6879566789518279</v>
+        <v>0.3150882317389758</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2919814551242865</v>
+        <v>0.5560795354157619</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.13533571217323</v>
+        <v>2.632491924946237</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.158659730488637</v>
+        <v>5.851917792528525</v>
       </c>
       <c r="C12">
-        <v>0.329292655710276</v>
+        <v>0.9428098461414436</v>
       </c>
       <c r="D12">
-        <v>0.1168417194310791</v>
+        <v>0.3460467330108372</v>
       </c>
       <c r="E12">
-        <v>0.0702770918107003</v>
+        <v>0.02635342870470225</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002427525395702355</v>
+        <v>0.0007654572791505233</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6859128033550732</v>
+        <v>0.3172901885183563</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2955291707050947</v>
+        <v>0.5705258216164992</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.137381432702</v>
+        <v>2.685060729877648</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.149303882038964</v>
+        <v>5.819852374099924</v>
       </c>
       <c r="C13">
-        <v>0.327828176965653</v>
+        <v>0.938104109142273</v>
       </c>
       <c r="D13">
-        <v>0.1163274014623283</v>
+        <v>0.3440531055830149</v>
       </c>
       <c r="E13">
-        <v>0.07031452659319015</v>
+        <v>0.02635662201144129</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002427711521319185</v>
+        <v>0.0007657823279653324</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6863489483939986</v>
+        <v>0.3168006553010088</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2947642979671912</v>
+        <v>0.5674090277324666</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.136922657648086</v>
+        <v>2.673657503669517</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.118793307420901</v>
+        <v>5.715385580844043</v>
       </c>
       <c r="C14">
-        <v>0.323050068986305</v>
+        <v>0.9227699464690318</v>
       </c>
       <c r="D14">
-        <v>0.1146511335976612</v>
+        <v>0.3375653129472056</v>
       </c>
       <c r="E14">
-        <v>0.07043765247993683</v>
+        <v>0.0263696170486547</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002428321335177277</v>
+        <v>0.0007668440813170493</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6877867080960272</v>
+        <v>0.3152625388190486</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2922729633609435</v>
+        <v>0.5572655724850648</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.135495819874194</v>
+        <v>2.636780301609178</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.100105407151318</v>
+        <v>5.65147585283421</v>
       </c>
       <c r="C15">
-        <v>0.3201217118200077</v>
+        <v>0.9133864954132775</v>
       </c>
       <c r="D15">
-        <v>0.1136251653389024</v>
+        <v>0.3336018010417803</v>
       </c>
       <c r="E15">
-        <v>0.07051387197861203</v>
+        <v>0.0263795417545456</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002428697031099814</v>
+        <v>0.0007674957609321575</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6886792005750451</v>
+        <v>0.3143646640750646</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2907493174266307</v>
+        <v>0.5510683269356207</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.134675075834082</v>
+        <v>2.614427629851974</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.993024736274378</v>
+        <v>5.286373591205631</v>
       </c>
       <c r="C16">
-        <v>0.3033157108954754</v>
+        <v>0.8597437405938706</v>
       </c>
       <c r="D16">
-        <v>0.1077578892582096</v>
+        <v>0.3110405424563112</v>
       </c>
       <c r="E16">
-        <v>0.07096293477216875</v>
+        <v>0.02646578968083979</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002430883271869339</v>
+        <v>0.000771251392916807</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.693974626714585</v>
+        <v>0.3098745478913827</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2820542397638093</v>
+        <v>0.5157866570993548</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.130786143391504</v>
+        <v>2.489806973744294</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.927346440925646</v>
+        <v>5.063331961319648</v>
       </c>
       <c r="C17">
-        <v>0.2929838722059799</v>
+        <v>0.8269406595281055</v>
       </c>
       <c r="D17">
-        <v>0.104169288873976</v>
+        <v>0.2973270538816308</v>
       </c>
       <c r="E17">
-        <v>0.0712493747101135</v>
+        <v>0.0265441265222659</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002432254221938675</v>
+        <v>0.000773575049198697</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6973843000974114</v>
+        <v>0.3076802562749634</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2767525227270653</v>
+        <v>0.4943374495089614</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.129125464956246</v>
+        <v>2.41630973945621</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.889575075960806</v>
+        <v>4.935358287998724</v>
       </c>
       <c r="C18">
-        <v>0.2870333033928887</v>
+        <v>0.8081075851999913</v>
       </c>
       <c r="D18">
-        <v>0.1021091665947296</v>
+        <v>0.2894828578091619</v>
       </c>
       <c r="E18">
-        <v>0.07141815196007961</v>
+        <v>0.02659822647849452</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.00243305372012252</v>
+        <v>0.0007749191207863153</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6994045270144511</v>
+        <v>0.3066146872075208</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2737150424064083</v>
+        <v>0.4820673748688762</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.128436081497256</v>
+        <v>2.375065600333954</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.876787262097707</v>
+        <v>4.892079751028291</v>
       </c>
       <c r="C19">
-        <v>0.2850171821035303</v>
+        <v>0.8017365521347415</v>
       </c>
       <c r="D19">
-        <v>0.1014123206492741</v>
+        <v>0.2868341081970129</v>
       </c>
       <c r="E19">
-        <v>0.07147598815192246</v>
+        <v>0.02661806911587306</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002433326302206502</v>
+        <v>0.000775375529957516</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.700098674549622</v>
+        <v>0.3062867991784515</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2726886530817012</v>
+        <v>0.4779240044343993</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.128248255986733</v>
+        <v>2.361272741938478</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.934337497254091</v>
+        <v>5.0870419628435</v>
       </c>
       <c r="C20">
-        <v>0.2940845405981065</v>
+        <v>0.8304289520247892</v>
       </c>
       <c r="D20">
-        <v>0.1045508927562793</v>
+        <v>0.2987823102560583</v>
       </c>
       <c r="E20">
-        <v>0.07121846613547866</v>
+        <v>0.0265348448977818</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002432107147963952</v>
+        <v>0.0007733269161638525</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6970152177548243</v>
+        <v>0.3078932963955623</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2773156653452418</v>
+        <v>0.4966137225584362</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.129274723329218</v>
+        <v>2.424025864734119</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.127754858361641</v>
+        <v>5.746053321053694</v>
       </c>
       <c r="C21">
-        <v>0.324453854848656</v>
+        <v>0.9272720258325364</v>
       </c>
       <c r="D21">
-        <v>0.1151433284951224</v>
+        <v>0.3394687376346326</v>
       </c>
       <c r="E21">
-        <v>0.07040132041781</v>
+        <v>0.02636538880373429</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002428141766594605</v>
+        <v>0.0007665319443835528</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6873619385576433</v>
+        <v>0.3157050391488596</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2930042351892297</v>
+        <v>0.5602416062519637</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.135903818856576</v>
+        <v>2.647562575071731</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.254197458440842</v>
+        <v>6.180217046280063</v>
       </c>
       <c r="C22">
-        <v>0.3442293040837114</v>
+        <v>0.9909633073291957</v>
       </c>
       <c r="D22">
-        <v>0.1221015983409899</v>
+        <v>0.366518348300005</v>
       </c>
       <c r="E22">
-        <v>0.06990313133930925</v>
+        <v>0.02634175795997962</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002425647233004416</v>
+        <v>0.00076215124167723</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6815817859932451</v>
+        <v>0.3227660610628575</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3033636515813072</v>
+        <v>0.6025254786711685</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.142617224649229</v>
+        <v>2.80405205529118</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.186710195008175</v>
+        <v>5.948144824317069</v>
       </c>
       <c r="C23">
-        <v>0.3336815036662415</v>
+        <v>0.9569288343590756</v>
       </c>
       <c r="D23">
-        <v>0.1183845727823609</v>
+        <v>0.3520358186022321</v>
       </c>
       <c r="E23">
-        <v>0.07016574158022593</v>
+        <v>0.02634606348665436</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002426969757364591</v>
+        <v>0.0007644841623622039</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6846182399195442</v>
+        <v>0.3188080058197329</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2978249428900739</v>
+        <v>0.5798885037349066</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.138815620682806</v>
+        <v>2.719516631838303</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.931176878058523</v>
+        <v>5.076321881121373</v>
       </c>
       <c r="C24">
-        <v>0.293586961599317</v>
+        <v>0.8288518154470239</v>
       </c>
       <c r="D24">
-        <v>0.1043783602660682</v>
+        <v>0.2981242654304452</v>
       </c>
       <c r="E24">
-        <v>0.0712324271339515</v>
+        <v>0.0265390129618126</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002432173604763462</v>
+        <v>0.0007734390715873535</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6971818931338305</v>
+        <v>0.3077963727955861</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2770610357145671</v>
+        <v>0.4955844294961338</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.129206417163914</v>
+        <v>2.420534270488901</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.655742271273084</v>
+        <v>4.147606900332335</v>
       </c>
       <c r="C25">
-        <v>0.2500347462477066</v>
+        <v>0.6919713360733795</v>
       </c>
       <c r="D25">
-        <v>0.08942097105517632</v>
+        <v>0.2415982834619967</v>
       </c>
       <c r="E25">
-        <v>0.07253687455404556</v>
+        <v>0.02708963707149525</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002438206323473971</v>
+        <v>0.0007833911334964444</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.712990661169794</v>
+        <v>0.3033344737051706</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2551198231366811</v>
+        <v>0.4071588202649821</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.128994640924361</v>
+        <v>2.136811606102356</v>
       </c>
     </row>
   </sheetData>
